--- a/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1474872410987475</v>
+        <v>0.1248202706383709</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.136922285001768</v>
+        <v>0.148498167613985</v>
       </c>
     </row>
     <row r="6">
@@ -746,26 +746,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8828479185713995</v>
+        <v>0.868180956512637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8062729074243207</v>
+        <v>0.8066307986875308</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.5174311338833313</v>
+        <v>0.5423657049460033</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.8998976406347508</v>
+        <v>0.8910826936836787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6130961060482443</v>
+        <v>0.5990851561152358</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5481378614147829</v>
+        <v>0.5793839527661051</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1838438194570486</v>
+        <v>0.1838438194570485</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.20134113778946</v>
@@ -813,7 +813,7 @@
         <v>0.20535173249385</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2483261065231644</v>
+        <v>0.2483261065231645</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07875749553648095</v>
+        <v>0.1042648366775428</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
@@ -839,19 +839,19 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.04854783927449435</v>
+        <v>0.04849743900583361</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1265679496653547</v>
+        <v>0.1270293297310569</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1105033668842197</v>
+        <v>0.1204813461755613</v>
       </c>
     </row>
     <row r="9">
@@ -863,13 +863,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.8886937846756795</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8102496729165777</v>
+        <v>0.8131535121252321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6076025494919279</v>
+        <v>0.6089761534614382</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
@@ -877,19 +877,19 @@
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.4197745065788303</v>
+        <v>0.4800309780226215</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7262346895015125</v>
+        <v>0.8798960902199194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8224092691830698</v>
+        <v>0.8401992724900927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5931248679579445</v>
+        <v>0.5974699438400466</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4376121919992205</v>
+        <v>0.4318098224120722</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +913,7 @@
         <v>0.4882752954751549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4314878153952268</v>
+        <v>0.431487815395227</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0.2877358967191327</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2650545724457036</v>
+        <v>0.2650545724457035</v>
       </c>
     </row>
     <row r="11">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.148150029107528</v>
+        <v>0.148110153805328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2683664580771869</v>
+        <v>0.1377400889704701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.224195488757989</v>
+        <v>0.2178087686584148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2199466909835573</v>
+        <v>0.220776670496855</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -965,19 +965,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.05259229655703495</v>
+        <v>0.04682482559463199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07797232570681709</v>
+        <v>0.07923343292824649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1075799079356855</v>
+        <v>0.1089648546066369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1010821587174181</v>
+        <v>0.09424864975674753</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1570976966903464</v>
+        <v>0.1624899581734895</v>
       </c>
     </row>
     <row r="12">
@@ -988,36 +988,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8649594834282145</v>
+        <v>0.8624081704321277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8611806872163913</v>
+        <v>0.8597935185415276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7573205465941456</v>
+        <v>0.7626869153985374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.646460775787717</v>
+        <v>0.6385637161550535</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.3768857981847769</v>
+        <v>0.4633849943392496</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3211820552932777</v>
+        <v>0.2963455342702106</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.55135328780934</v>
+        <v>0.5988308265368305</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5189638995745719</v>
+        <v>0.5347989228933323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5153408364391394</v>
+        <v>0.5223293716956032</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3948458325963768</v>
+        <v>0.4077859068840148</v>
       </c>
     </row>
     <row r="13">
@@ -1041,7 +1041,7 @@
         <v>0.4860280201178137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3347312322250141</v>
+        <v>0.3347312322250142</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2366606322004398</v>
@@ -1053,7 +1053,7 @@
         <v>0.334277353508245</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.144071696278739</v>
+        <v>0.1440716962787389</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3495815077831966</v>
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2206311469972767</v>
+        <v>0.2197312743394813</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2697174985524747</v>
+        <v>0.2632172220038836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2939994188945277</v>
+        <v>0.3095225510924735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2381987494439739</v>
+        <v>0.2372172824409663</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06416391688060949</v>
+        <v>0.05770177680840461</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1431066594347871</v>
+        <v>0.1438213462098594</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06292350479425937</v>
+        <v>0.06245825074422606</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2195270985724142</v>
+        <v>0.2073120874055065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2364160031492751</v>
+        <v>0.2303275416360607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2798328717411588</v>
+        <v>0.275595608717624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1983109752158649</v>
+        <v>0.1961601266568772</v>
       </c>
     </row>
     <row r="15">
@@ -1120,40 +1120,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5691205360939746</v>
+        <v>0.566374123216415</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6080731738195894</v>
+        <v>0.5991524786680854</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6684751419595544</v>
+        <v>0.6895753671599553</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.454011878016849</v>
+        <v>0.4389026413929546</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6682915282518939</v>
+        <v>0.663050431728739</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5211163231300021</v>
+        <v>0.4719566990387956</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6172688540402743</v>
+        <v>0.6390522625887964</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2580869438564955</v>
+        <v>0.2535091287391146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5142317746824425</v>
+        <v>0.5136797815675116</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5019237775032974</v>
+        <v>0.50425703864372</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5796337274016616</v>
+        <v>0.5751677012849883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3463474015057944</v>
+        <v>0.3530419395942039</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0.4884694686928484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3589292000445341</v>
+        <v>0.358929200044534</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1235383316557593</v>
@@ -1212,40 +1212,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09969485143109684</v>
+        <v>0.1016882582260085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1124643782342617</v>
+        <v>0.1142601829043089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2962007268684617</v>
+        <v>0.3191868329737417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2023170039159639</v>
+        <v>0.2019360028414643</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07521024079430949</v>
+        <v>0.06486238677311912</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02470534013077716</v>
+        <v>0.02443733577400373</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1242174780830381</v>
+        <v>0.1220376589771795</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1006619749469365</v>
+        <v>0.07088802363888363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1023025550803056</v>
+        <v>0.1003718526680512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1595803677888054</v>
+        <v>0.1540078793913529</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1525137869906202</v>
+        <v>0.1499152654172846</v>
       </c>
     </row>
     <row r="18">
@@ -1256,40 +1256,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6573050326720377</v>
+        <v>0.6702718715092587</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5731914135462873</v>
+        <v>0.5257865773275399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6616991891118555</v>
+        <v>0.6922613347769935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5433423428551266</v>
+        <v>0.5265838682679932</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3456149789408188</v>
+        <v>0.4119626068084692</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2404467589570831</v>
+        <v>0.2411716325110171</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2377039495066103</v>
+        <v>0.227914994953536</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2347630360626072</v>
+        <v>0.2394264285977719</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4209544263215677</v>
+        <v>0.4113752278216228</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2778872397992196</v>
+        <v>0.2664452157176745</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.374986132705133</v>
+        <v>0.3723157476268229</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2680929476813204</v>
+        <v>0.2650813769131523</v>
       </c>
     </row>
     <row r="19">
@@ -1346,28 +1346,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.03941003198220498</v>
+        <v>0.03993440934386659</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07290053955774367</v>
+        <v>0.0772756370480701</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07505824935255943</v>
+        <v>0.07755460760360716</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09027627738018952</v>
+        <v>0.0880103223131406</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03941003198220498</v>
+        <v>0.03993440934386659</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07290053955774367</v>
+        <v>0.0772756370480701</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07505824935255943</v>
+        <v>0.07755460760360716</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08515298419134691</v>
+        <v>0.08494683874375161</v>
       </c>
     </row>
     <row r="21">
@@ -1382,28 +1382,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.1976368536442819</v>
+        <v>0.1926179051719722</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2215822044814414</v>
+        <v>0.2252978544331092</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2207861628496773</v>
+        <v>0.2399007476049931</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1888072939825271</v>
+        <v>0.1838149853298537</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1976368536442819</v>
+        <v>0.1926179051719722</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2215822044814414</v>
+        <v>0.2252978544331092</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2207861628496773</v>
+        <v>0.2399007476049931</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.18205450788495</v>
+        <v>0.1778868157161258</v>
       </c>
     </row>
     <row r="22">
@@ -1427,7 +1427,7 @@
         <v>0.4713092916578513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3512013724883474</v>
+        <v>0.3512013724883475</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1149566732011205</v>
@@ -1439,7 +1439,7 @@
         <v>0.1418274839441213</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1507846723044971</v>
+        <v>0.1507846723044972</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2182682108194892</v>
@@ -1462,40 +1462,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2814243090088366</v>
+        <v>0.2864961412334142</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09785436724229721</v>
+        <v>0.09808268828883852</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09517792590797905</v>
+        <v>0.08820999527867063</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1218576033846683</v>
+        <v>0.1200942978974489</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1756111923943606</v>
+        <v>0.1765049512916509</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1855814264191852</v>
+        <v>0.1874529246580935</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1769526247387505</v>
+        <v>0.1771638877808169</v>
       </c>
     </row>
     <row r="24">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.42493519336529</v>
+        <v>0.4338557129734658</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1987788304127884</v>
+        <v>0.1977819901693134</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2150006950150012</v>
+        <v>0.2084175270118958</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1838414158392147</v>
+        <v>0.1873069711150818</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2810338069021048</v>
+        <v>0.2795757670649762</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3026746874393565</v>
+        <v>0.303686412043325</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2425079375277688</v>
+        <v>0.2397616656248441</v>
       </c>
     </row>
     <row r="25">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>872</v>
+        <v>738</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1684</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="7">
@@ -1850,26 +1850,26 @@
         <v>4222</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5724</v>
+        <v>5628</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>3304</v>
+        <v>3464</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>6734</v>
+        <v>6668</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6968</v>
+        <v>6809</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6741</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="8">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>704</v>
+        <v>933</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -1987,19 +1987,19 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2058</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="11">
@@ -2011,13 +2011,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5808</v>
+        <v>6535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3931</v>
+        <v>3945</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5434</v>
+        <v>5447</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -2025,19 +2025,19 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4063</v>
+        <v>4646</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2953</v>
+        <v>3578</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8106</v>
+        <v>8282</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5549</v>
+        <v>5590</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8150</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="12">
@@ -2140,16 +2140,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1904</v>
+        <v>977</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2338</v>
+        <v>2272</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3134</v>
+        <v>3146</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -2157,19 +2157,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>1091</v>
+        <v>971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1895</v>
+        <v>1919</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1789</v>
+        <v>1668</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5497</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="15">
@@ -2180,36 +2180,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5182</v>
+        <v>5167</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6109</v>
+        <v>6099</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7899</v>
+        <v>7955</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9211</v>
+        <v>9099</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>3965</v>
+        <v>4875</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>6663</v>
+        <v>6147</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5769</v>
+        <v>6266</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>9142</v>
+        <v>9420</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9121</v>
+        <v>9244</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13817</v>
+        <v>14270</v>
       </c>
     </row>
     <row r="16">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6499</v>
+        <v>6473</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11466</v>
+        <v>11189</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7250</v>
+        <v>7633</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13018</v>
+        <v>12964</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1169</v>
+        <v>1051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3128</v>
+        <v>3144</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8081</v>
+        <v>7632</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14356</v>
+        <v>13987</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13017</v>
+        <v>12820</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>16814</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="19">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16765</v>
+        <v>16684</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25849</v>
+        <v>25470</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16484</v>
+        <v>17004</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24812</v>
+        <v>23986</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4915</v>
+        <v>4876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9492</v>
+        <v>8597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13493</v>
+        <v>13969</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7778</v>
+        <v>7640</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18930</v>
+        <v>18910</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>30479</v>
+        <v>30621</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26963</v>
+        <v>26756</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29365</v>
+        <v>29933</v>
       </c>
     </row>
     <row r="20">
@@ -2492,40 +2492,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1021</v>
+        <v>1042</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2041</v>
+        <v>2073</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7604</v>
+        <v>8194</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3796</v>
+        <v>3789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4915</v>
+        <v>4238</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11162</v>
+        <v>10966</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2769</v>
+        <v>1950</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8541</v>
+        <v>8380</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>9805</v>
+        <v>9462</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>16567</v>
+        <v>16284</v>
       </c>
     </row>
     <row r="23">
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6734</v>
+        <v>6867</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10400</v>
+        <v>9540</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16988</v>
+        <v>17772</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10195</v>
+        <v>9880</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5966</v>
+        <v>7111</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15712</v>
+        <v>15759</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8502</v>
+        <v>8152</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21096</v>
+        <v>21515</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11579</v>
+        <v>11315</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23201</v>
+        <v>22245</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23039</v>
+        <v>22875</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>29121</v>
+        <v>28794</v>
       </c>
     </row>
     <row r="24">
@@ -2670,28 +2670,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>2362</v>
+        <v>2393</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7553</v>
+        <v>8007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7228</v>
+        <v>7468</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10186</v>
+        <v>9931</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2362</v>
+        <v>2393</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7553</v>
+        <v>8007</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7228</v>
+        <v>7468</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9796</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="27">
@@ -2706,28 +2706,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>11845</v>
+        <v>11545</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>22958</v>
+        <v>23343</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21261</v>
+        <v>23102</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21304</v>
+        <v>20741</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11845</v>
+        <v>11545</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22958</v>
+        <v>23343</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21261</v>
+        <v>23102</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20943</v>
+        <v>20464</v>
       </c>
     </row>
     <row r="28">
@@ -2830,40 +2830,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>29471</v>
+        <v>30002</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19989</v>
+        <v>20036</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16235</v>
+        <v>15047</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>32858</v>
+        <v>32382</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>49659</v>
+        <v>49912</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>45036</v>
+        <v>45490</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>66244</v>
+        <v>66323</v>
       </c>
     </row>
     <row r="31">
@@ -2874,40 +2874,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44500</v>
+        <v>45434</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40606</v>
+        <v>40402</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>36674</v>
+        <v>35551</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>49571</v>
+        <v>50505</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>79471</v>
+        <v>79058</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>73452</v>
+        <v>73697</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>90786</v>
+        <v>89757</v>
       </c>
     </row>
     <row r="32">
